--- a/MailMonitoringBackground/Config.xlsx
+++ b/MailMonitoringBackground/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeve\OneDrive\Documents\UiPath\MailMonitoringBackground\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeve\OneDrive\Documents\UiPath\Email_Monitoring\MailMonitoringBackground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429EF792-175A-450F-9669-7A5B1B1EE278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3651A1B2-14DC-4409-A893-1DDB9D9A655A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,10 +202,10 @@
     <t>MailFolder</t>
   </si>
   <si>
-    <t>Drafts</t>
-  </si>
-  <si>
     <t>TopMail</t>
+  </si>
+  <si>
+    <t>IACET</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -728,12 +728,12 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>30</v>
